--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Tgfb1-Tgfbr1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H2">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J2">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N2">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P2">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q2">
-        <v>263.2323455218099</v>
+        <v>715.3021597843332</v>
       </c>
       <c r="R2">
-        <v>2369.09110969629</v>
+        <v>6437.719438058999</v>
       </c>
       <c r="S2">
-        <v>0.001542346272525809</v>
+        <v>0.005375117257839811</v>
       </c>
       <c r="T2">
-        <v>0.001542346272525809</v>
+        <v>0.005375117257839812</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H3">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J3">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>46.112413</v>
       </c>
       <c r="O3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P3">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q3">
-        <v>499.9379573715846</v>
+        <v>900.4678302596666</v>
       </c>
       <c r="R3">
-        <v>4499.441616344261</v>
+        <v>8104.210472336999</v>
       </c>
       <c r="S3">
-        <v>0.002929265563917347</v>
+        <v>0.006766539298605811</v>
       </c>
       <c r="T3">
-        <v>0.002929265563917347</v>
+        <v>0.006766539298605811</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H4">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J4">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N4">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P4">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q4">
-        <v>2409.30254662125</v>
+        <v>2100.337946662667</v>
       </c>
       <c r="R4">
-        <v>21683.72291959125</v>
+        <v>18903.041519964</v>
       </c>
       <c r="S4">
-        <v>0.01411672564327905</v>
+        <v>0.01578292836108056</v>
       </c>
       <c r="T4">
-        <v>0.01411672564327905</v>
+        <v>0.01578292836108056</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H5">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J5">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N5">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P5">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q5">
-        <v>507.9399612547262</v>
+        <v>501.4279877973332</v>
       </c>
       <c r="R5">
-        <v>4571.459651292535</v>
+        <v>4512.851890176</v>
       </c>
       <c r="S5">
-        <v>0.002976151370589149</v>
+        <v>0.003767966018145341</v>
       </c>
       <c r="T5">
-        <v>0.002976151370589149</v>
+        <v>0.003767966018145341</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H6">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J6">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N6">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P6">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q6">
-        <v>3771.354735181322</v>
+        <v>8450.134709967999</v>
       </c>
       <c r="R6">
-        <v>33942.1926166319</v>
+        <v>76051.21238971199</v>
       </c>
       <c r="S6">
-        <v>0.0220973410644078</v>
+        <v>0.06349829130155943</v>
       </c>
       <c r="T6">
-        <v>0.0220973410644078</v>
+        <v>0.06349829130155943</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>32.52516566666667</v>
+        <v>58.583</v>
       </c>
       <c r="H7">
-        <v>97.575497</v>
+        <v>175.749</v>
       </c>
       <c r="I7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="J7">
-        <v>0.06370711489344116</v>
+        <v>0.1148754272503719</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N7">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P7">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q7">
-        <v>3421.130180423736</v>
+        <v>2619.557025257666</v>
       </c>
       <c r="R7">
-        <v>30790.17162381363</v>
+        <v>23576.013227319</v>
       </c>
       <c r="S7">
-        <v>0.02004528497872201</v>
+        <v>0.0196845850131409</v>
       </c>
       <c r="T7">
-        <v>0.02004528497872201</v>
+        <v>0.0196845850131409</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>36.467271</v>
       </c>
       <c r="I8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J8">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N8">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P8">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q8">
-        <v>98.37885099482999</v>
+        <v>148.422566886529</v>
       </c>
       <c r="R8">
-        <v>885.4096589534699</v>
+        <v>1335.803101978761</v>
       </c>
       <c r="S8">
-        <v>0.0005764270869769544</v>
+        <v>0.001115317058409557</v>
       </c>
       <c r="T8">
-        <v>0.0005764270869769545</v>
+        <v>0.001115317058409557</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>36.467271</v>
       </c>
       <c r="I9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J9">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>46.112413</v>
       </c>
       <c r="O9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P9">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q9">
         <v>186.843762370547</v>
@@ -1013,10 +1013,10 @@
         <v>1681.593861334923</v>
       </c>
       <c r="S9">
-        <v>0.001094765842190296</v>
+        <v>0.001404032013464703</v>
       </c>
       <c r="T9">
-        <v>0.001094765842190296</v>
+        <v>0.001404032013464703</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>36.467271</v>
       </c>
       <c r="I10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J10">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N10">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P10">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q10">
-        <v>900.4380360842771</v>
+        <v>435.8123977520841</v>
       </c>
       <c r="R10">
-        <v>8103.942324758495</v>
+        <v>3922.311579768756</v>
       </c>
       <c r="S10">
-        <v>0.005275898924359119</v>
+        <v>0.003274899576766359</v>
       </c>
       <c r="T10">
-        <v>0.00527589892435912</v>
+        <v>0.003274899576766359</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>36.467271</v>
       </c>
       <c r="I11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J11">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N11">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P11">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q11">
-        <v>189.834382486472</v>
+        <v>104.044462944256</v>
       </c>
       <c r="R11">
-        <v>1708.509442378248</v>
+        <v>936.400166498304</v>
       </c>
       <c r="S11">
-        <v>0.001112288657554016</v>
+        <v>0.0007818390881455774</v>
       </c>
       <c r="T11">
-        <v>0.001112288657554016</v>
+        <v>0.0007818390881455773</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>36.467271</v>
       </c>
       <c r="I12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J12">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N12">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P12">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q12">
-        <v>1409.483111984462</v>
+        <v>1753.371868146672</v>
       </c>
       <c r="R12">
-        <v>12685.34800786016</v>
+        <v>15780.34681332005</v>
       </c>
       <c r="S12">
-        <v>0.008258525446969414</v>
+        <v>0.01317566186397027</v>
       </c>
       <c r="T12">
-        <v>0.008258525446969416</v>
+        <v>0.01317566186397027</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>36.467271</v>
       </c>
       <c r="I13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="J13">
-        <v>0.02380950848190151</v>
+        <v>0.02383622858041921</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N13">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P13">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q13">
-        <v>1278.592323396429</v>
+        <v>543.548446591589</v>
       </c>
       <c r="R13">
-        <v>11507.33091056786</v>
+        <v>4891.936019324301</v>
       </c>
       <c r="S13">
-        <v>0.007491602523851709</v>
+        <v>0.004084478979662745</v>
       </c>
       <c r="T13">
-        <v>0.00749160252385171</v>
+        <v>0.004084478979662745</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H14">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I14">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J14">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N14">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P14">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q14">
-        <v>1222.61522324494</v>
+        <v>1803.442109778563</v>
       </c>
       <c r="R14">
-        <v>11003.53700920446</v>
+        <v>16230.97898800707</v>
       </c>
       <c r="S14">
-        <v>0.007163618242154458</v>
+        <v>0.01355191323720942</v>
       </c>
       <c r="T14">
-        <v>0.007163618242154459</v>
+        <v>0.01355191323720942</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H15">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I15">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J15">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>46.112413</v>
       </c>
       <c r="O15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P15">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q15">
-        <v>2322.023747305157</v>
+        <v>2270.287572011307</v>
       </c>
       <c r="R15">
-        <v>20898.21372574642</v>
+        <v>20432.58814810176</v>
       </c>
       <c r="S15">
-        <v>0.01360533662484799</v>
+        <v>0.01706000987366863</v>
       </c>
       <c r="T15">
-        <v>0.01360533662484799</v>
+        <v>0.01706000987366863</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H16">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I16">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J16">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N16">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P16">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q16">
-        <v>11190.30400714141</v>
+        <v>5295.437523800214</v>
       </c>
       <c r="R16">
-        <v>100712.7360642727</v>
+        <v>47658.93771420192</v>
       </c>
       <c r="S16">
-        <v>0.06556688023894529</v>
+        <v>0.0397924111267509</v>
       </c>
       <c r="T16">
-        <v>0.0655668802389453</v>
+        <v>0.03979241112675089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H17">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I17">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J17">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N17">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P17">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q17">
-        <v>2359.190045180141</v>
+        <v>1264.215878346979</v>
       </c>
       <c r="R17">
-        <v>21232.71040662126</v>
+        <v>11377.94290512281</v>
       </c>
       <c r="S17">
-        <v>0.01382310355952097</v>
+        <v>0.009499913417550397</v>
       </c>
       <c r="T17">
-        <v>0.01382310355952097</v>
+        <v>0.009499913417550396</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H18">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I18">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J18">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N18">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P18">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q18">
-        <v>17516.52405159129</v>
+        <v>21304.74312261615</v>
       </c>
       <c r="R18">
-        <v>157648.7164643216</v>
+        <v>191742.6881035454</v>
       </c>
       <c r="S18">
-        <v>0.1026338367537058</v>
+        <v>0.1600938720312896</v>
       </c>
       <c r="T18">
-        <v>0.1026338367537058</v>
+        <v>0.1600938720312896</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>151.0671593333333</v>
+        <v>147.7012863333333</v>
       </c>
       <c r="H19">
-        <v>453.201478</v>
+        <v>443.103859</v>
       </c>
       <c r="I19">
-        <v>0.2958955835892216</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="J19">
-        <v>0.2958955835892217</v>
+        <v>0.289627509225734</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N19">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P19">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q19">
-        <v>15889.86274083179</v>
+        <v>6604.508855027525</v>
       </c>
       <c r="R19">
-        <v>143008.7646674861</v>
+        <v>59440.57969524772</v>
       </c>
       <c r="S19">
-        <v>0.09310280817004718</v>
+        <v>0.04962938953926508</v>
       </c>
       <c r="T19">
-        <v>0.09310280817004719</v>
+        <v>0.04962938953926507</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H20">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J20">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N20">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P20">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q20">
-        <v>78.85480976379998</v>
+        <v>85.35773456895966</v>
       </c>
       <c r="R20">
-        <v>709.6932878741999</v>
+        <v>768.219611120637</v>
       </c>
       <c r="S20">
-        <v>0.000462030688777386</v>
+        <v>0.0006414182117247591</v>
       </c>
       <c r="T20">
-        <v>0.000462030688777386</v>
+        <v>0.0006414182117247592</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H21">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J21">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>46.112413</v>
       </c>
       <c r="O21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P21">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q21">
-        <v>149.7631776371978</v>
+        <v>107.4537424385323</v>
       </c>
       <c r="R21">
-        <v>1347.86859873478</v>
+        <v>967.083681946791</v>
       </c>
       <c r="S21">
-        <v>0.0008775011229431696</v>
+        <v>0.0008074580196639853</v>
       </c>
       <c r="T21">
-        <v>0.0008775011229431697</v>
+        <v>0.0008074580196639853</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H22">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J22">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N22">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P22">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q22">
-        <v>721.7391677327756</v>
+        <v>250.6354643335613</v>
       </c>
       <c r="R22">
-        <v>6495.65250959498</v>
+        <v>2255.719179002052</v>
       </c>
       <c r="S22">
-        <v>0.004228856119037601</v>
+        <v>0.001883392900941618</v>
       </c>
       <c r="T22">
-        <v>0.004228856119037602</v>
+        <v>0.001883392900941618</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H23">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J23">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N23">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P23">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q23">
-        <v>152.1602861410311</v>
+        <v>59.83591200221866</v>
       </c>
       <c r="R23">
-        <v>1369.44257526928</v>
+        <v>538.5232080199679</v>
       </c>
       <c r="S23">
-        <v>0.0008915464005415524</v>
+        <v>0.0004496352189663194</v>
       </c>
       <c r="T23">
-        <v>0.0008915464005415525</v>
+        <v>0.0004496352189663194</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H24">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J24">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N24">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P24">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q24">
-        <v>1129.760324875764</v>
+        <v>1008.363173211824</v>
       </c>
       <c r="R24">
-        <v>10167.84292388188</v>
+        <v>9075.268558906415</v>
       </c>
       <c r="S24">
-        <v>0.006619557419759838</v>
+        <v>0.007577315712474803</v>
       </c>
       <c r="T24">
-        <v>0.006619557419759839</v>
+        <v>0.007577315712474803</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>9.743353333333333</v>
+        <v>6.990769</v>
       </c>
       <c r="H25">
-        <v>29.23006</v>
+        <v>20.972307</v>
       </c>
       <c r="I25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="J25">
-        <v>0.01908432801282251</v>
+        <v>0.01370820162305882</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N25">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P25">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q25">
-        <v>1024.845822118607</v>
+        <v>312.5944053036463</v>
       </c>
       <c r="R25">
-        <v>9223.612399067459</v>
+        <v>2813.349647732817</v>
       </c>
       <c r="S25">
-        <v>0.006004836261762962</v>
+        <v>0.002348981559287336</v>
       </c>
       <c r="T25">
-        <v>0.006004836261762962</v>
+        <v>0.002348981559287336</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H26">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J26">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N26">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P26">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q26">
-        <v>1154.02244351464</v>
+        <v>2293.17420213785</v>
       </c>
       <c r="R26">
-        <v>10386.20199163176</v>
+        <v>20638.56781924066</v>
       </c>
       <c r="S26">
-        <v>0.006761715436746958</v>
+        <v>0.01723199078954349</v>
       </c>
       <c r="T26">
-        <v>0.006761715436746958</v>
+        <v>0.0172319907895435</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H27">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J27">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>46.112413</v>
       </c>
       <c r="O27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P27">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q27">
-        <v>2191.750493382554</v>
+        <v>2886.793461981294</v>
       </c>
       <c r="R27">
-        <v>19725.75444044299</v>
+        <v>25981.14115783165</v>
       </c>
       <c r="S27">
-        <v>0.01284203199676729</v>
+        <v>0.02169272543786697</v>
       </c>
       <c r="T27">
-        <v>0.01284203199676729</v>
+        <v>0.02169272543786697</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H28">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J28">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N28">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P28">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q28">
-        <v>10562.49073990617</v>
+        <v>6733.435275115329</v>
       </c>
       <c r="R28">
-        <v>95062.41665915555</v>
+        <v>60600.91747603797</v>
       </c>
       <c r="S28">
-        <v>0.06188836022027878</v>
+        <v>0.05059820337007247</v>
       </c>
       <c r="T28">
-        <v>0.06188836022027878</v>
+        <v>0.05059820337007247</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H29">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J29">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N29">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P29">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q29">
-        <v>2226.831638353287</v>
+        <v>1607.518878725916</v>
       </c>
       <c r="R29">
-        <v>20041.48474517958</v>
+        <v>14467.66990853325</v>
       </c>
       <c r="S29">
-        <v>0.01304758148223911</v>
+        <v>0.01207965382062897</v>
       </c>
       <c r="T29">
-        <v>0.01304758148223911</v>
+        <v>0.01207965382062897</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H30">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J30">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N30">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P30">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q30">
-        <v>16533.78880253854</v>
+        <v>27090.13338828819</v>
       </c>
       <c r="R30">
-        <v>148804.0992228469</v>
+        <v>243811.2004945937</v>
       </c>
       <c r="S30">
-        <v>0.09687573721144929</v>
+        <v>0.2035680187747136</v>
       </c>
       <c r="T30">
-        <v>0.09687573721144929</v>
+        <v>0.2035680187747136</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>142.5917893333333</v>
+        <v>187.8101756666667</v>
       </c>
       <c r="H31">
-        <v>427.775368</v>
+        <v>563.430527</v>
       </c>
       <c r="I31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="J31">
-        <v>0.2792948573734662</v>
+        <v>0.3682770457585942</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N31">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P31">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q31">
-        <v>14998.3886006409</v>
+        <v>8397.990288692847</v>
       </c>
       <c r="R31">
-        <v>134985.4974057681</v>
+        <v>75581.91259823563</v>
       </c>
       <c r="S31">
-        <v>0.08787943102598474</v>
+        <v>0.06310645356576866</v>
       </c>
       <c r="T31">
-        <v>0.08787943102598474</v>
+        <v>0.06310645356576866</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H32">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I32">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J32">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>8.093189999999998</v>
+        <v>12.21006366666666</v>
       </c>
       <c r="N32">
-        <v>24.27957</v>
+        <v>36.630191</v>
       </c>
       <c r="O32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="P32">
-        <v>0.02420995323843489</v>
+        <v>0.04679083583406139</v>
       </c>
       <c r="Q32">
-        <v>1314.81072870462</v>
+        <v>1181.065095371773</v>
       </c>
       <c r="R32">
-        <v>11833.29655834158</v>
+        <v>10629.58585834596</v>
       </c>
       <c r="S32">
-        <v>0.007703815511253322</v>
+        <v>0.008875079279334345</v>
       </c>
       <c r="T32">
-        <v>0.007703815511253324</v>
+        <v>0.008875079279334345</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H33">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I33">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J33">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>46.112413</v>
       </c>
       <c r="O33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="P33">
-        <v>0.04598019497220904</v>
+        <v>0.05890327862596836</v>
       </c>
       <c r="Q33">
-        <v>2497.123933366958</v>
+        <v>1486.799821973836</v>
       </c>
       <c r="R33">
-        <v>22474.11540030262</v>
+        <v>13381.19839776452</v>
       </c>
       <c r="S33">
-        <v>0.01463129382154294</v>
+        <v>0.01117251398269825</v>
       </c>
       <c r="T33">
-        <v>0.01463129382154295</v>
+        <v>0.01117251398269825</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H34">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I34">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J34">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>74.07502766666667</v>
+        <v>35.85234533333333</v>
       </c>
       <c r="N34">
-        <v>222.225083</v>
+        <v>107.557036</v>
       </c>
       <c r="O34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="P34">
-        <v>0.2215878974725382</v>
+        <v>0.1373916836599141</v>
       </c>
       <c r="Q34">
-        <v>12034.14736404618</v>
+        <v>3467.955189784439</v>
       </c>
       <c r="R34">
-        <v>108307.3262764156</v>
+        <v>31211.59670805995</v>
       </c>
       <c r="S34">
-        <v>0.07051117632663829</v>
+        <v>0.02605984832430217</v>
       </c>
       <c r="T34">
-        <v>0.07051117632663831</v>
+        <v>0.02605984832430217</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H35">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I35">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J35">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>15.61682933333333</v>
+        <v>8.559274666666665</v>
       </c>
       <c r="N35">
-        <v>46.850488</v>
+        <v>25.677824</v>
       </c>
       <c r="O35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="P35">
-        <v>0.04671615369126616</v>
+        <v>0.03280045270197804</v>
       </c>
       <c r="Q35">
-        <v>2537.092883747408</v>
+        <v>827.9285699465669</v>
       </c>
       <c r="R35">
-        <v>22833.83595372667</v>
+        <v>7451.357129519103</v>
       </c>
       <c r="S35">
-        <v>0.01486548222082136</v>
+        <v>0.006221445138541433</v>
       </c>
       <c r="T35">
-        <v>0.01486548222082136</v>
+        <v>0.006221445138541433</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H36">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I36">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J36">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>115.9518993333333</v>
+        <v>144.242096</v>
       </c>
       <c r="N36">
-        <v>347.855698</v>
+        <v>432.726288</v>
       </c>
       <c r="O36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="P36">
-        <v>0.3468582920662569</v>
+        <v>0.5527578249016165</v>
       </c>
       <c r="Q36">
-        <v>18837.41778670027</v>
+        <v>13952.3682692944</v>
       </c>
       <c r="R36">
-        <v>169536.7600803024</v>
+        <v>125571.3144236496</v>
       </c>
       <c r="S36">
-        <v>0.1103732941699648</v>
+        <v>0.1048446652176088</v>
       </c>
       <c r="T36">
-        <v>0.1103732941699648</v>
+        <v>0.1048446652176088</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>162.458898</v>
+        <v>96.72882366666666</v>
       </c>
       <c r="H37">
-        <v>487.376694</v>
+        <v>290.186471</v>
       </c>
       <c r="I37">
-        <v>0.3182086076491469</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="J37">
-        <v>0.318208607649147</v>
+        <v>0.1896755875618219</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>105.184097</v>
+        <v>44.71531033333333</v>
       </c>
       <c r="N37">
-        <v>315.552291</v>
+        <v>134.145931</v>
       </c>
       <c r="O37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="P37">
-        <v>0.3146475085592949</v>
+        <v>0.1713559242764617</v>
       </c>
       <c r="Q37">
-        <v>17088.09248574511</v>
+        <v>4325.259368433277</v>
       </c>
       <c r="R37">
-        <v>153792.8323717059</v>
+        <v>38927.3343158995</v>
       </c>
       <c r="S37">
-        <v>0.1001235455989263</v>
+        <v>0.03250203561933693</v>
       </c>
       <c r="T37">
-        <v>0.1001235455989263</v>
+        <v>0.03250203561933693</v>
       </c>
     </row>
   </sheetData>
